--- a/biology/Histoire de la zoologie et de la botanique/Robert_Lendlmayr_von_Lendenfeld/Robert_Lendlmayr_von_Lendenfeld.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Lendlmayr_von_Lendenfeld/Robert_Lendlmayr_von_Lendenfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Lendlmayr von Lendenfeld est un biologiste marin et un explorateur autrichien, né le 10 février 1858 à Graz et mort le 3 juillet 1913 à Prague.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il séjourne en Australie de 1881 à 1886 et étudie les éponges et les méduses du sud du pays ainsi que les Alpes australiennes et néo-zélandaises (dont il nomme plusieurs sommets). Il demeure à Londres de 1886 à 1889 avant de revenir en Autriche. Il enseigne successivement à Innsbruck, Czernovtsy (en Ukraine) et à Prague.
-Son nom est commémoré dans le mont Lendenfeld (43° 34' 170° 10' 3 201 m) et le Lendenfeld Saddle (43° 30' 170° 20' 2 436 m)[1]
+Son nom est commémoré dans le mont Lendenfeld (43° 34' 170° 10' 3 201 m) et le Lendenfeld Saddle (43° 30' 170° 20' 2 436 m)
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1892 : Australische Reise, Wagner (Innsbruck) : 325 p.
 1903 : Tetraxonia (volume 19 de la série Das Tierreich), R. Friedländer und sohn (Berlin) : xv + 198 p. – exemplaire numérique sur Biodiversity Heritage Library</t>
@@ -574,7 +590,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ cf. (en) Ruterford Journal.
@@ -606,7 +624,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Biographie de l’Australian National Botanic Gardens</t>
         </is>
